--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Notch4</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H2">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I2">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J2">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>922.3125679751178</v>
+        <v>935.9179743004261</v>
       </c>
       <c r="R2">
-        <v>922.3125679751178</v>
+        <v>3743.671897201704</v>
       </c>
       <c r="S2">
-        <v>0.300973665397967</v>
+        <v>0.2872376777566292</v>
       </c>
       <c r="T2">
-        <v>0.300973665397967</v>
+        <v>0.2099580898532539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H3">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I3">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J3">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>27.39003986333066</v>
+        <v>29.203353830635</v>
       </c>
       <c r="R3">
-        <v>27.39003986333066</v>
+        <v>175.22012298381</v>
       </c>
       <c r="S3">
-        <v>0.008938055252962202</v>
+        <v>0.008962648188573142</v>
       </c>
       <c r="T3">
-        <v>0.008938055252962202</v>
+        <v>0.009826951542690398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H4">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I4">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J4">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>8.780516557975041</v>
+        <v>16.776714083079</v>
       </c>
       <c r="R4">
-        <v>8.780516557975041</v>
+        <v>100.660284498474</v>
       </c>
       <c r="S4">
-        <v>0.00286530222432422</v>
+        <v>0.005148853346055836</v>
       </c>
       <c r="T4">
-        <v>0.00286530222432422</v>
+        <v>0.005645377489726634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H5">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I5">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J5">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>20.53807127070474</v>
+        <v>22.870999085848</v>
       </c>
       <c r="R5">
-        <v>20.53807127070474</v>
+        <v>137.225994515088</v>
       </c>
       <c r="S5">
-        <v>0.006702086478252839</v>
+        <v>0.007019218399244261</v>
       </c>
       <c r="T5">
-        <v>0.006702086478252839</v>
+        <v>0.007696109188451306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H6">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I6">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J6">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>554.1819245922868</v>
+        <v>582.8693185835131</v>
       </c>
       <c r="R6">
-        <v>554.1819245922868</v>
+        <v>3497.215911501078</v>
       </c>
       <c r="S6">
-        <v>0.1808434265490136</v>
+        <v>0.1788853661354892</v>
       </c>
       <c r="T6">
-        <v>0.1808434265490136</v>
+        <v>0.1961359843345297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H7">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I7">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J7">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N7">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O7">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P7">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q7">
-        <v>15.58108325004719</v>
+        <v>18.879777002295</v>
       </c>
       <c r="R7">
-        <v>15.58108325004719</v>
+        <v>75.51910800917999</v>
       </c>
       <c r="S7">
-        <v>0.005084497272907251</v>
+        <v>0.005794293358620199</v>
       </c>
       <c r="T7">
-        <v>0.005084497272907251</v>
+        <v>0.004235373211226343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H8">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J8">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N8">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O8">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P8">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q8">
-        <v>488.9912497243147</v>
+        <v>10.94879301015067</v>
       </c>
       <c r="R8">
-        <v>488.9912497243147</v>
+        <v>65.692758060904</v>
       </c>
       <c r="S8">
-        <v>0.1595700783956248</v>
+        <v>0.003360236649824388</v>
       </c>
       <c r="T8">
-        <v>0.1595700783956248</v>
+        <v>0.003684277462982012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H9">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J9">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N9">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P9">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q9">
-        <v>14.5216386372935</v>
+        <v>0.3416340802011111</v>
       </c>
       <c r="R9">
-        <v>14.5216386372935</v>
+        <v>3.07470672181</v>
       </c>
       <c r="S9">
-        <v>0.004738773990520829</v>
+        <v>0.0001048491241049611</v>
       </c>
       <c r="T9">
-        <v>0.004738773990520829</v>
+        <v>0.0001724402052040742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H10">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J10">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N10">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O10">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P10">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q10">
-        <v>4.655250198244167</v>
+        <v>0.1962616115193333</v>
       </c>
       <c r="R10">
-        <v>4.655250198244167</v>
+        <v>1.766354503674</v>
       </c>
       <c r="S10">
-        <v>0.00151912460499829</v>
+        <v>6.023362204121027E-05</v>
       </c>
       <c r="T10">
-        <v>0.00151912460499829</v>
+        <v>9.906328005728647E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H11">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J11">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N11">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O11">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P11">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q11">
-        <v>10.8888651052838</v>
+        <v>0.2675553219431111</v>
       </c>
       <c r="R11">
-        <v>10.8888651052838</v>
+        <v>2.407997897488</v>
       </c>
       <c r="S11">
-        <v>0.003553309102093576</v>
+        <v>8.211400085975626E-05</v>
       </c>
       <c r="T11">
-        <v>0.003553309102093576</v>
+        <v>0.0001350488645399557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H12">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J12">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N12">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O12">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P12">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q12">
-        <v>293.815915873239</v>
+        <v>6.818669687275333</v>
       </c>
       <c r="R12">
-        <v>293.815915873239</v>
+        <v>61.368027185478</v>
       </c>
       <c r="S12">
-        <v>0.0958794840525421</v>
+        <v>0.002092682158205663</v>
       </c>
       <c r="T12">
-        <v>0.0958794840525421</v>
+        <v>0.00344173157256556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H13">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J13">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N13">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O13">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P13">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q13">
-        <v>8.260771494447106</v>
+        <v>0.22086419553</v>
       </c>
       <c r="R13">
-        <v>8.260771494447106</v>
+        <v>1.32518517318</v>
       </c>
       <c r="S13">
-        <v>0.002695696407083831</v>
+        <v>6.778427208970251E-05</v>
       </c>
       <c r="T13">
-        <v>0.002695696407083831</v>
+        <v>7.432097558300938E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H14">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I14">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J14">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N14">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O14">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P14">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q14">
-        <v>413.5868297066999</v>
+        <v>1.860899596850667</v>
       </c>
       <c r="R14">
-        <v>413.5868297066999</v>
+        <v>11.165397581104</v>
       </c>
       <c r="S14">
-        <v>0.1349637296718572</v>
+        <v>0.0005711189371452909</v>
       </c>
       <c r="T14">
-        <v>0.1349637296718572</v>
+        <v>0.0006261941785905474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H15">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I15">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J15">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N15">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P15">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q15">
-        <v>12.28234347655628</v>
+        <v>0.05806546178444445</v>
       </c>
       <c r="R15">
-        <v>12.28234347655628</v>
+        <v>0.52258915606</v>
       </c>
       <c r="S15">
-        <v>0.004008035956760032</v>
+        <v>1.782056639450367E-05</v>
       </c>
       <c r="T15">
-        <v>0.004008035956760032</v>
+        <v>2.930861036897912E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H16">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I16">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J16">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N16">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O16">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P16">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q16">
-        <v>3.937391869627058</v>
+        <v>0.03335738956933333</v>
       </c>
       <c r="R16">
-        <v>3.937391869627058</v>
+        <v>0.300216506124</v>
       </c>
       <c r="S16">
-        <v>0.001284869472950498</v>
+        <v>1.023754151434096E-05</v>
       </c>
       <c r="T16">
-        <v>0.001284869472950498</v>
+        <v>1.683718175605297E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H17">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I17">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J17">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N17">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O17">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P17">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q17">
-        <v>9.209758253419125</v>
+        <v>0.04547474687644443</v>
       </c>
       <c r="R17">
-        <v>9.209758253419125</v>
+        <v>0.409272721888</v>
       </c>
       <c r="S17">
-        <v>0.003005374528340498</v>
+        <v>1.395641610486643E-05</v>
       </c>
       <c r="T17">
-        <v>0.003005374528340498</v>
+        <v>2.295343215864536E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H18">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I18">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J18">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N18">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O18">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P18">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q18">
-        <v>248.508318363352</v>
+        <v>1.158927715625333</v>
       </c>
       <c r="R18">
-        <v>248.508318363352</v>
+        <v>10.430349440628</v>
       </c>
       <c r="S18">
-        <v>0.08109448147704387</v>
+        <v>0.0003556804280555042</v>
       </c>
       <c r="T18">
-        <v>0.08109448147704387</v>
+        <v>0.0005849701323166513</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.099916</v>
+      </c>
+      <c r="I19">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J19">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.127115</v>
+      </c>
+      <c r="N19">
+        <v>2.25423</v>
+      </c>
+      <c r="O19">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P19">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q19">
+        <v>0.03753894077999999</v>
+      </c>
+      <c r="R19">
+        <v>0.22523364468</v>
+      </c>
+      <c r="S19">
+        <v>1.152087946932586E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.263188311001481E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H20">
+        <v>27.314064</v>
+      </c>
+      <c r="I20">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J20">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>55.873922</v>
+      </c>
+      <c r="N20">
+        <v>111.747844</v>
+      </c>
+      <c r="O20">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P20">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q20">
+        <v>508.714627146336</v>
+      </c>
+      <c r="R20">
+        <v>3052.287762878016</v>
+      </c>
+      <c r="S20">
+        <v>0.1561269386364391</v>
+      </c>
+      <c r="T20">
+        <v>0.1711828723172429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H21">
+        <v>27.314064</v>
+      </c>
+      <c r="I21">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J21">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.230285</v>
+      </c>
+      <c r="O21">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P21">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q21">
+        <v>15.87337102536</v>
+      </c>
+      <c r="R21">
+        <v>142.86033922824</v>
+      </c>
+      <c r="S21">
+        <v>0.004871613065131934</v>
+      </c>
+      <c r="T21">
+        <v>0.008012102760012003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H22">
+        <v>27.314064</v>
+      </c>
+      <c r="I22">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J22">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.001563</v>
+      </c>
+      <c r="N22">
+        <v>3.004689</v>
+      </c>
+      <c r="O22">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P22">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q22">
+        <v>9.118918627344</v>
+      </c>
+      <c r="R22">
+        <v>82.070267646096</v>
+      </c>
+      <c r="S22">
+        <v>0.002798639498432343</v>
+      </c>
+      <c r="T22">
+        <v>0.004602784939994226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H23">
+        <v>27.314064</v>
+      </c>
+      <c r="I23">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J23">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.096168</v>
+      </c>
+      <c r="O23">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P23">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q23">
+        <v>12.431443878528</v>
+      </c>
+      <c r="R23">
+        <v>111.882994906752</v>
+      </c>
+      <c r="S23">
+        <v>0.003815269253162178</v>
+      </c>
+      <c r="T23">
+        <v>0.006274785970223963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H24">
+        <v>27.314064</v>
+      </c>
+      <c r="I24">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J24">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>34.797061</v>
+      </c>
+      <c r="N24">
+        <v>104.391183</v>
+      </c>
+      <c r="O24">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P24">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q24">
+        <v>316.816383721968</v>
+      </c>
+      <c r="R24">
+        <v>2851.347453497712</v>
+      </c>
+      <c r="S24">
+        <v>0.09723245501676843</v>
+      </c>
+      <c r="T24">
+        <v>0.159913443614491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H25">
+        <v>27.314064</v>
+      </c>
+      <c r="I25">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J25">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.127115</v>
+      </c>
+      <c r="N25">
+        <v>2.25423</v>
+      </c>
+      <c r="O25">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P25">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q25">
+        <v>10.26203041512</v>
+      </c>
+      <c r="R25">
+        <v>61.57218249071999</v>
+      </c>
+      <c r="S25">
+        <v>0.00314946594300665</v>
+      </c>
+      <c r="T25">
+        <v>0.003453181309374509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.888947</v>
+      </c>
+      <c r="H26">
+        <v>15.777894</v>
+      </c>
+      <c r="I26">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J26">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>55.873922</v>
+      </c>
+      <c r="N26">
+        <v>111.747844</v>
+      </c>
+      <c r="O26">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P26">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q26">
+        <v>440.786409340134</v>
+      </c>
+      <c r="R26">
+        <v>1763.145637360536</v>
+      </c>
+      <c r="S26">
+        <v>0.1352794455092937</v>
+      </c>
+      <c r="T26">
+        <v>0.09888331571738986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.888947</v>
+      </c>
+      <c r="H27">
+        <v>15.777894</v>
+      </c>
+      <c r="I27">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J27">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.230285</v>
+      </c>
+      <c r="O27">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P27">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q27">
+        <v>13.753813719965</v>
+      </c>
+      <c r="R27">
+        <v>82.52288231979</v>
+      </c>
+      <c r="S27">
+        <v>0.004221110846998094</v>
+      </c>
+      <c r="T27">
+        <v>0.004628169138967266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.888947</v>
+      </c>
+      <c r="H28">
+        <v>15.777894</v>
+      </c>
+      <c r="I28">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J28">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.001563</v>
+      </c>
+      <c r="N28">
+        <v>3.004689</v>
+      </c>
+      <c r="O28">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P28">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q28">
+        <v>7.901277424161</v>
+      </c>
+      <c r="R28">
+        <v>47.407664544966</v>
+      </c>
+      <c r="S28">
+        <v>0.002424939621790372</v>
+      </c>
+      <c r="T28">
+        <v>0.002658786070356475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="H19">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="I19">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="J19">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="N19">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="O19">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="P19">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="Q19">
-        <v>6.986927261471548</v>
-      </c>
-      <c r="R19">
-        <v>6.986927261471548</v>
-      </c>
-      <c r="S19">
-        <v>0.002280009164757259</v>
-      </c>
-      <c r="T19">
-        <v>0.002280009164757259</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.888947</v>
+      </c>
+      <c r="H29">
+        <v>15.777894</v>
+      </c>
+      <c r="I29">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J29">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N29">
+        <v>4.096168</v>
+      </c>
+      <c r="O29">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P29">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q29">
+        <v>10.771484085032</v>
+      </c>
+      <c r="R29">
+        <v>64.62890451019199</v>
+      </c>
+      <c r="S29">
+        <v>0.003305819697382932</v>
+      </c>
+      <c r="T29">
+        <v>0.003624612870163915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.888947</v>
+      </c>
+      <c r="H30">
+        <v>15.777894</v>
+      </c>
+      <c r="I30">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J30">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>34.797061</v>
+      </c>
+      <c r="N30">
+        <v>104.391183</v>
+      </c>
+      <c r="O30">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P30">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q30">
+        <v>274.512169984767</v>
+      </c>
+      <c r="R30">
+        <v>1647.073019908602</v>
+      </c>
+      <c r="S30">
+        <v>0.08424909061212975</v>
+      </c>
+      <c r="T30">
+        <v>0.09237356119998898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.888947</v>
+      </c>
+      <c r="H31">
+        <v>15.777894</v>
+      </c>
+      <c r="I31">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J31">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.127115</v>
+      </c>
+      <c r="N31">
+        <v>2.25423</v>
+      </c>
+      <c r="O31">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P31">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q31">
+        <v>8.891750497904999</v>
+      </c>
+      <c r="R31">
+        <v>35.56700199162</v>
+      </c>
+      <c r="S31">
+        <v>0.002728920519042991</v>
+      </c>
+      <c r="T31">
+        <v>0.001994720692683894</v>
       </c>
     </row>
   </sheetData>
